--- a/data/minfin/12_questions.xlsx
+++ b/data/minfin/12_questions.xlsx
@@ -60,9 +60,6 @@
     <t>12.1</t>
   </si>
   <si>
-    <t>Какова структура государственного долга Российской Федерации по типу инструментов?</t>
-  </si>
-  <si>
     <t>Какова структура государственного долга Российской Федерации по валюте обязательств?</t>
   </si>
   <si>
@@ -93,55 +90,58 @@
     <t>12.6</t>
   </si>
   <si>
-    <t>структура, государственный долг, Российской Федерации, по типу инструментов</t>
-  </si>
-  <si>
-    <t>На начало две тысячи семнадцатого года семьдесят пять процентов объема государственного долга Российской Федерации составляли государственные ценные бумаги, двадцать четыре процента - государственные гарантии, один процент - прочие обязательства</t>
-  </si>
-  <si>
-    <t>На начало 2017 г. 75% объема государственного долга Российской Федерации составляли государственные ценные бумаги, 24% - государственные гарантии, 1% - прочие обязательства</t>
-  </si>
-  <si>
     <t>структура, государственный долг, Российская Федерация, по валюте обязательств</t>
   </si>
   <si>
-    <t>На начало две тысячи семнадцатого года семьдесят два процента государственного долга было выражено в валюте Российской Федерации и двадцать восемь процентов в иностранной валюте</t>
-  </si>
-  <si>
-    <t>На начало 2017 г. 72% государственного долга было выражено в валюте Российской Федерации и 28% в иностранной валюте</t>
-  </si>
-  <si>
-    <t>доля, нерезидентов, ОФЗ, облигации федерального займа</t>
-  </si>
-  <si>
-    <t>По состоянию на начало апреля две тысячи семнадцатого года доля нерезидентов в ОФЗ составляла около тридцать процентов</t>
-  </si>
-  <si>
-    <t>По состоянию на начало апреля 2017 г. доля нерезидентов в ОФЗ составляла около 30%</t>
-  </si>
-  <si>
     <t>средняя доходность, обращающихся, ОФЗ, облигации федерального займа</t>
   </si>
   <si>
-    <t>По состоянию на начало апреля две тысячи семнадцатого года доходность портфеля ОФЗ составляла восемь целых одна десятая процента</t>
-  </si>
-  <si>
-    <t>По состоянию на начало апреля 2017 г. доходность портфеля ОФЗ составляла 8,1%</t>
-  </si>
-  <si>
-    <t>средний, срок, до погашения, дюрация, обращающихся, ОФЗ, облигации федерального займа</t>
-  </si>
-  <si>
-    <t>По состоянию на начало апреля две тысячи семнадцатого года средний срок до погашения (дюрация) портфеля ОФЗ составляла четыре года</t>
-  </si>
-  <si>
-    <t>По состоянию на начало апреля 2017 г. средний срок до погашения (дюрация) портфеля ОФЗ составляла 4 года</t>
-  </si>
-  <si>
-    <t>вид, ОФЗ, пользуется, наибольшим, спросом, у инвесторов, облигации федерального займа</t>
-  </si>
-  <si>
-    <t>Наибольшим спросом у инвесторов пользуются ОФЗ с постоянным купонным доходом</t>
+    <t>Какова структура государственного долга Российской Федерации?</t>
+  </si>
+  <si>
+    <t>структура, государственный долг, Российской Федерации</t>
+  </si>
+  <si>
+    <t>По состоянию на первое июля две тысячи семнадцатого года семьдесят семь процентов объема государственного долга Российской Федерации составляли государственные ценные бумаги, двадцать два процента - государственные гарантии, один процент - прочие обязательства</t>
+  </si>
+  <si>
+    <t>По состоянию на 1 июля 2017 г. 77% объема государственного долга Российской Федерации составляли государственные ценные бумаги, 22% - государственные гарантии, 1% - прочие обязательства</t>
+  </si>
+  <si>
+    <t>По состоянию на первое июля две тысячи семнадцатого года семьдесят три процента государственного долга было выражено в валюте Российской Федерации и двадцать семь процентов   в иностранной валюте</t>
+  </si>
+  <si>
+    <t>По состоянию на 1 июля 2017 г. 73% государственного долга было выражено в валюте Российской Федерации и 27%   в иностранной валюте</t>
+  </si>
+  <si>
+    <t>По состоянию на первое июня две тысячи семнадцатого года доля нерезидентов в ОФЗ составляла тридцать целых семь десятых процента</t>
+  </si>
+  <si>
+    <t>По состоянию на 1 июня 2017 г. доля нерезидентов в ОФЗ составляла 30,7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По состоянию на начало июня две тысячи семнадцатого года доходность портфеля ОФЗ составляла семь целых девять десятых процента </t>
+  </si>
+  <si>
+    <t>По состоянию на начало июня 2017 г. доходность портфеля ОФЗ составляла 7,9%</t>
+  </si>
+  <si>
+    <t>По состоянию на начало июня две тысячи семнадцатого года средний срок до погашения (дюрация) портфеля ОФЗ составлял четыре целых одну десятую года</t>
+  </si>
+  <si>
+    <t>По состоянию на начало июня 2017 г. средний срок до погашения (дюрация) портфеля ОФЗ составляла 4,1 года</t>
+  </si>
+  <si>
+    <t>Наибольшим спросом у инвесторов традиционно пользуются ОФЗ с постоянным купонным доходом</t>
+  </si>
+  <si>
+    <t>доля, нерезидентов, ОФЗ, облигации федерального займа, облигации федеральных займов</t>
+  </si>
+  <si>
+    <t>средний, срок, до погашения, дюрация, обращающихся, ОФЗ, облигации федерального займа, облигации федеральных займов</t>
+  </si>
+  <si>
+    <t>вид, ОФЗ, пользуется, наибольшим, спросом, у инвесторов, облигации федерального займа, облигации федеральных займов</t>
   </si>
 </sst>
 </file>
@@ -179,12 +179,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -226,12 +232,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,11 +567,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -567,7 +579,7 @@
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
     <col min="3" max="4" width="54.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="74.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -617,109 +629,109 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="134.25" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A6" s="8" t="s">
+      <c r="D6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="69" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1">
@@ -773,7 +785,7 @@
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>

--- a/data/minfin/12_questions.xlsx
+++ b/data/minfin/12_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>question</t>
   </si>
@@ -114,21 +114,12 @@
     <t>По состоянию на 1 июля 2017 г. 73% государственного долга было выражено в валюте Российской Федерации и 27%   в иностранной валюте</t>
   </si>
   <si>
-    <t>По состоянию на первое июня две тысячи семнадцатого года доля нерезидентов в ОФЗ составляла тридцать целых семь десятых процента</t>
-  </si>
-  <si>
     <t>По состоянию на 1 июня 2017 г. доля нерезидентов в ОФЗ составляла 30,7%</t>
   </si>
   <si>
-    <t xml:space="preserve">По состоянию на начало июня две тысячи семнадцатого года доходность портфеля ОФЗ составляла семь целых девять десятых процента </t>
-  </si>
-  <si>
     <t>По состоянию на начало июня 2017 г. доходность портфеля ОФЗ составляла 7,9%</t>
   </si>
   <si>
-    <t>По состоянию на начало июня две тысячи семнадцатого года средний срок до погашения (дюрация) портфеля ОФЗ составлял четыре целых одну десятую года</t>
-  </si>
-  <si>
     <t>По состоянию на начало июня 2017 г. средний срок до погашения (дюрация) портфеля ОФЗ составляла 4,1 года</t>
   </si>
   <si>
@@ -142,13 +133,25 @@
   </si>
   <si>
     <t>вид, ОФЗ, пользуется, наибольшим, спросом, у инвесторов, облигации федерального займа, облигации федеральных займов</t>
+  </si>
+  <si>
+    <t>По состоянию на первое июня две тысячи семнадцатого года доля нерезидентов в ОФЭЗ\+Э составляла тридцать целых семь десятых процента</t>
+  </si>
+  <si>
+    <t>По состоянию на начало июня две тысячи семнадцатого года доходность портфеля ОФЭЗ\+Э составляла семь целых девять десятых процента</t>
+  </si>
+  <si>
+    <t>По состоянию на начало июня две тысячи семнадцатого года средний срок до погашения (дюрация) портфеля ОФЭЗ\+Э составлял четыре целых одну десятую года</t>
+  </si>
+  <si>
+    <t>Наибольшим спросом у инвесторов традиционно пользуются ОФЭЗ\+Э с постоянным купонным доходом</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,24 +560,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -591,7 +594,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -629,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="134.25" customHeight="1">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -647,7 +650,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -665,7 +668,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -673,17 +676,17 @@
         <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -691,16 +694,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -708,16 +711,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="69" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -725,94 +728,94 @@
         <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1">
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/12_questions.xlsx
+++ b/data/minfin/12_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -111,9 +111,6 @@
     <t>По состоянию на первое июля две тысячи семнадцатого года семьдесят три процента государственного долга было выражено в валюте Российской Федерации и двадцать семь процентов   в иностранной валюте</t>
   </si>
   <si>
-    <t>По состоянию на 1 июля 2017 г. 73% государственного долга было выражено в валюте Российской Федерации и 27%   в иностранной валюте</t>
-  </si>
-  <si>
     <t>По состоянию на 1 июня 2017 г. доля нерезидентов в ОФЗ составляла 30,7%</t>
   </si>
   <si>
@@ -145,13 +142,16 @@
   </si>
   <si>
     <t>Наибольшим спросом у инвесторов традиционно пользуются ОФЭЗ\+Э с постоянным купонным доходом</t>
+  </si>
+  <si>
+    <t>По состоянию на 1 июля 2017 г. 73% государственного долга было выражено в валюте Российской Федерации и 27% в иностранной валюте</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,24 +560,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -594,7 +594,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="134.25" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -650,7 +650,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -661,14 +661,14 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -676,17 +676,17 @@
         <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -694,16 +694,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -711,16 +711,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="69" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -728,94 +728,94 @@
         <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1">
       <c r="A8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1">
       <c r="A9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="5" customFormat="1">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="5" customFormat="1">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="5" customFormat="1">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
